--- a/biology/Zoologie/Brachymeles_bonitae/Brachymeles_bonitae.xlsx
+++ b/biology/Zoologie/Brachymeles_bonitae/Brachymeles_bonitae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachymeles bonitae est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachymeles bonitae est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre dans les îles de Camiguin, de Tablas, de Sibuyan, de Polillo, de Mindoro, de Luçon, de Masbate, de Marinduque, de Calotcot et de Lubang[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre dans les îles de Camiguin, de Tablas, de Sibuyan, de Polillo, de Mindoro, de Luçon, de Masbate, de Marinduque, de Calotcot et de Lubang.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1839 : Erpétologie Générale ou Histoire Naturelle Complète des Reptiles. vol. 5, Roret/Fain et Thunot, Paris, p. 1-871 (texte intégral).</t>
         </is>
